--- a/assets/excel/AttendanceSheet1.xlsx
+++ b/assets/excel/AttendanceSheet1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://700appsnet-my.sharepoint.com/personal/mohamed_sofy_700apps_net/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fci mobile project\Attendance\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2C44BDEC2040C98AC652E41EA4F5C1BC1998AE38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35DD3171-8FEB-4B0D-ABDE-524481F6F090}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -67,16 +66,48 @@
   </si>
   <si>
     <t>mohsen</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/handsome-young-man-with-arms-crossed-white-background_23-2148222620.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/handsome-confident-smiling-man-with-hands-crossed-chest_176420-18743.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/attractive-mixed-race-male-with-positive-smile-shows-white-teeth-keeps-hands-stomach-being-high-spirit-wears-white-shirt-rejoices-positive-moments-life-people-emotions-concept_273609-15527.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/confident-handsome-guy-posing-against-white-wall_176420-32936.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/fashionable-stylish-man-with-dark-eyes-casual-clothes-looking-aside-with-placid-thoughtful-look-pensive-guy-with-puzzled-expression-thinking-about-something-building-plans_176420-10331.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/thoughtful-concerned-man-thinking-trying-find-solution_176420-19574.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/serious-thoughtful-man-squinting-skeptical-thinking-as-making-choice_176420-19020.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,14 +130,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +440,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -420,8 +457,11 @@
       <c r="D2" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -434,8 +474,11 @@
       <c r="D3" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -448,8 +491,11 @@
       <c r="D4" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -462,8 +508,11 @@
       <c r="D5" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -476,8 +525,11 @@
       <c r="D6" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -490,8 +542,11 @@
       <c r="D7" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -504,8 +559,11 @@
       <c r="D8" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -518,8 +576,11 @@
       <c r="D9" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -532,8 +593,11 @@
       <c r="D10" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -546,8 +610,16 @@
       <c r="D11" s="1">
         <v>0.41666666666666669</v>
       </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/excel/AttendanceSheet1.xlsx
+++ b/assets/excel/AttendanceSheet1.xlsx
@@ -1,102 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fci mobile project\Attendance\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideapad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F9AA53-D8E7-451F-AB6C-D6A3C705B3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="EXPORT_FACE_ATTENDANCE-20240818" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Attend</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Sayed Ahmed</t>
-  </si>
-  <si>
-    <t>Mohamed Sayed</t>
-  </si>
-  <si>
-    <t>Ali Ahmed</t>
-  </si>
-  <si>
-    <t>Mona Saeed</t>
-  </si>
-  <si>
-    <t>Aya Mousa</t>
-  </si>
-  <si>
-    <t>Alia mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ahmed </t>
-  </si>
-  <si>
-    <t>mohsen</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/handsome-young-man-with-arms-crossed-white-background_23-2148222620.jpg</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/handsome-confident-smiling-man-with-hands-crossed-chest_176420-18743.jpg</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/attractive-mixed-race-male-with-positive-smile-shows-white-teeth-keeps-hands-stomach-being-high-spirit-wears-white-shirt-rejoices-positive-moments-life-people-emotions-concept_273609-15527.jpg</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/confident-handsome-guy-posing-against-white-wall_176420-32936.jpg</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/fashionable-stylish-man-with-dark-eyes-casual-clothes-looking-aside-with-placid-thoughtful-look-pensive-guy-with-puzzled-expression-thinking-about-something-building-plans_176420-10331.jpg</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/thoughtful-concerned-man-thinking-trying-find-solution_176420-19574.jpg</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/serious-thoughtful-man-squinting-skeptical-thinking-as-making-choice_176420-19020.jpg</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Check In Time</t>
+  </si>
+  <si>
+    <t>khafagy</t>
+  </si>
+  <si>
+    <t>18/08/2024</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Absenteeism</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>dr assem</t>
+  </si>
+  <si>
+    <t>dr salama</t>
+  </si>
+  <si>
+    <t>Late; Leave Early</t>
+  </si>
+  <si>
+    <t>01:35:32 PM; 01:35:37 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,23 +77,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -129,19 +393,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,7 +622,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -185,7 +634,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -202,7 +651,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -232,12 +681,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -267,6 +733,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,11 +902,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -441,185 +922,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.41666666666666669</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>